--- a/project/subtomo/excel/oscem_schemas_subtomo.xlsx
+++ b/project/subtomo/excel/oscem_schemas_subtomo.xlsx
@@ -9,32 +9,35 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Any" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Range" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Series" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageSize" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2D" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Descriptors" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TiltAngle" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AcquisitionTomo" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizational" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetTomo" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RangeSI" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Series" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageSize" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2D" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2DSI" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantitySI" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Descriptors" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TiltAngle" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AcquisitionTomo" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizational" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetTomo" sheetId="31" state="visible" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,6 +461,193 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>descriptor_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>descriptor_thing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>detector</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>detector_mode</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -469,6 +659,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>width_energy_filter</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>phaseplate</t>
         </is>
       </c>
@@ -488,7 +714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -519,7 +745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -550,7 +776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -581,7 +807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -637,7 +863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -683,7 +909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -737,7 +963,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -803,7 +1060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -839,7 +1096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -910,27 +1167,108 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>material</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>mesh</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>film_support</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>film_material</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>film_topology</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>film_thickness</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pretreatment_type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pretreatment_time</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pretreatment_pressure</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pretreatment_atmosphere</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>maximal</t>
         </is>
@@ -941,83 +1279,173 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>manufacturer</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>material</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>mesh</t>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AC1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tilt_axis_angle</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tilt_angle</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>film_support</t>
+          <t>calibrated_defocus</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>film_material</t>
+          <t>nominal_magnification</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>film_topology</t>
+          <t>calibrated_magnification</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>film_thickness</t>
+          <t>holder</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>pretreatment_type</t>
+          <t>holder_cryogen</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>pretreatment_time</t>
+          <t>temperature_range</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>pretreatment_pressure</t>
+          <t>microscope_software</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>pretreatment_atmosphere</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>detector</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>detector_mode</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1034,264 +1462,62 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AC1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>tilt_axis_angle</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>tilt_angle</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
+          <t>grants</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>funder</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>first_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>work_status</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>calibrated_defocus</t>
+          <t>email</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>nominal_magnification</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>holder_cryogen</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>temperature_range</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>microscope_software</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>detector_mode</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>dose_per_movie</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>energy_filter</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>image_size</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>date_time</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>cryogen</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>frames_per_movie</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>grids_imaged</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>images_generated</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>binning_camera</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>specialist_optics</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>beamshift</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>beamtilt</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>imageshift</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>beamtiltgroups</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>gainref_flip_rotate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>funder</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>first_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>work_status</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
           <t>work_phone</t>
         </is>
       </c>
@@ -1301,7 +1527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1377,7 +1603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1428,7 +1654,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal_si</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal_si</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1469,7 +1726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1510,7 +1767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1546,7 +1803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1577,7 +1834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1618,7 +1875,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>x_min_si</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max_si</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>y_min_si</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>y_max_si</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1649,221 +1947,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>descriptor_name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>descriptor_thing</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>calibrated_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_magnification</t>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>si_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>si_unit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>unit</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>holder_cryogen</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>temperature_range</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>microscope_software</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>detector_mode</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>dose_per_movie</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>energy_filter</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>image_size</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>date_time</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>cryogen</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>frames_per_movie</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>grids_imaged</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>images_generated</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>binning_camera</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>specialist_optics</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>beamshift</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>beamtilt</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>imageshift</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>beamtiltgroups</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>gainref_flip_rotate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>width_energy_filter</t>
+          <t>value</t>
         </is>
       </c>
     </row>

--- a/project/subtomo/excel/oscem_schemas_subtomo.xlsx
+++ b/project/subtomo/excel/oscem_schemas_subtomo.xlsx
@@ -1964,12 +1964,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>si_value</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>si_unit</t>
+          <t>valueSI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unitSI</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">

--- a/project/subtomo/excel/oscem_schemas_subtomo.xlsx
+++ b/project/subtomo/excel/oscem_schemas_subtomo.xlsx
@@ -35,7 +35,53 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="27" state="visible" r:id="rId27"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetTomo" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Image2D" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Image3D" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageStack2D" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageStack3D" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Axis" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CoordinateSystem" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CoordinateTransformation" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Identity" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AxisNameMapping" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MapAxis" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Translation" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scale" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Affine" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sequence" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CTFMetadata" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AcquisitionMetadataMixin" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GainFile" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefectFile" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MovieFrame" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MovieStack" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProjectionImage" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MovieStackSeries" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TiltSeries" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SubProjectionImage" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tomogram" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ParticleMap" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CoordMetaMixin" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Annotation" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SegmentationMask2D" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SegmentationMask3D" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProbabilityMap2D" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProbabilityMap3D" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PointSet2D" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PointSet3D" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PointVectorSet2D" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PointVectorSet3D" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PointMatrixSet2D" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PointMatrixSet3D" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TriMesh" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProjectionAlignment" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alignment" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Region" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Average" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MovieStackCollection" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dataset" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetTomo" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Processing" sheetId="75" state="visible" r:id="rId75"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1309,7 +1355,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>last_name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1380,7 +1426,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>last_name</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -1523,20 +1569,2135 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>depth</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>images2D</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>images3D</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>axis_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>axis_unit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>axis_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"space,array"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>axes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>transformation_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"identity,map_axis,translation,scale,affine,sequence"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>transformation_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"identity,map_axis,translation,scale,affine,sequence"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>axis1_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>axis2_name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>transformation_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>map_axis</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"identity,map_axis,translation,scale,affine,sequence"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>transformation_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>translation</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"identity,map_axis,translation,scale,affine,sequence"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>height_im</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width_im</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>transformation_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"identity,map_axis,translation,scale,affine,sequence"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>transformation_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>affine</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"identity,map_axis,translation,scale,affine,sequence"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>transformation_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sequence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"identity,map_axis,translation,scale,affine,sequence"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>defocus_u</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>defocus_v</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>defocus_angle</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>nominal_tilt_angle</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>accumulated_dose</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ctf_metadata</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_tilt_angle</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>accumulated_dose</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ctf_metadata</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>images_movie</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_tilt_angle</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>accumulated_dose</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ctf_metadata</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>x_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>y_min</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>stacks</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>images_tilt</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>particle_index</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>nominal_tilt_angle</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>accumulated_dose</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ctf_metadata</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>depth</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>depth</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>depth</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>depth</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>origin2D</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>origin3D</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>origin2D</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>vector2D</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>origin3D</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>vector3D</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>origin2D</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>matrix2D</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>origin3D</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>matrix3D</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>coordinate_systems</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>coordinate_transformations</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sequence</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>transformation_type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"identity,map_axis,translation,scale,affine,sequence"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>projection_alignments</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>valueSI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unitSI</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>annotations</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>movie_stack_collections</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tilt_series</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>alignments</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>tomograms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>annotations</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>particle_maps</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>movie_stacks</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>gain_file</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>defect_file</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>regions</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>averages</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>processing</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>acquisition</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>instrument</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>organizational</t>
         </is>
@@ -1547,43 +3708,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>movie_stack_collection</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>dataset</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1600,150 +3766,6 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>x_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>x_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>y_min</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>y_max</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>valueSI</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>unitSI</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
           <t>descriptor_name</t>
         </is>
       </c>

--- a/project/subtomo/excel/oscem_schemas_subtomo.xlsx
+++ b/project/subtomo/excel/oscem_schemas_subtomo.xlsx
@@ -1,41 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Any" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Range" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Series" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageSize" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2D" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantitySI" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Descriptors" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TiltAngle" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AcquisitionTomo" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizational" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetTomo" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Any" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Range" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Series" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ImageSize" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="BoundingBox2D" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="QuantityValue" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="QuantitySI" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Descriptors" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Acquisition" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="EnergyFilter" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="SpecialistOptics" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Phaseplate" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="SphericalAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ChromaticAberrationCorrector" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Detector" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Instrument" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Microscope" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Sample" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="OverallMolecule" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Molecule" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Ligand" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Specimen" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Grid" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="SampleMolecular" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="TiltAngle" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="AcquisitionTomo" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Organizational" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Person" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Author" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Grant" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Funder" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="EMDatasetTomo" sheetId="32" state="visible" r:id="rId32"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -624,6 +627,144 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dispersion</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>collection_angle</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>microscope</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>illumination</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>imaging</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>electron_source</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>acceleration_voltage</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>c2_aperture</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>operating_mode</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>beam_convergence</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -635,82 +776,36 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>microscope</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>illumination</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>imaging</t>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>overall_molecule</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>electron_source</t>
+          <t>molecule</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>acceleration_voltage</t>
+          <t>ligands</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>c2_aperture</t>
+          <t>specimen</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>cs</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>overall_molecule</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>molecule</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ligands</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>specimen</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
           <t>grid</t>
         </is>
       </c>
@@ -720,7 +815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -774,7 +869,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -840,7 +966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -876,27 +1002,235 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>concentration</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ph</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>vitrification</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>vitrification_cryogen</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>humidity</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>staining</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>embedding</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>shadowing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>material</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>mesh</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>film_support</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>film_material</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>film_topology</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>film_thickness</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pretreatment_type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pretreatment_time</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pretreatment_pressure</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pretreatment_atmosphere</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>overall_molecule</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>molecule</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ligands</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>specimen</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>maximal</t>
         </is>
@@ -907,7 +1241,255 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AC1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tilt_axis_angle</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tilt_angle</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>screen_current</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>detectors</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>grants</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>funder</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>family_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>given_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>job_title</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>telephone</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -924,483 +1506,52 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>concentration</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ph</t>
+          <t>orcid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>role</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>vitrification</t>
+          <t>name_org</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>vitrification_cryogen</t>
+          <t>type_org</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>humidity</t>
+          <t>family_name</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>given_name</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>staining</t>
+          <t>job_title</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>embedding</t>
+          <t>email</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>shadowing</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>manufacturer</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>material</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>mesh</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>film_support</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>film_material</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>film_topology</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>film_thickness</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>pretreatment_type</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>pretreatment_time</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>pretreatment_pressure</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>pretreatment_atmosphere</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AC1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>tilt_axis_angle</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>tilt_angle</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>calibrated_defocus</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>nominal_magnification</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>holder_cryogen</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>temperature_range</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>microscope_software</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>detector_mode</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>dose_per_movie</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>energy_filter</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>image_size</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>date_time</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>cryogen</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>frames_per_movie</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>grids_imaged</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>images_generated</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>binning_camera</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>specialist_optics</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>beamshift</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>beamtilt</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>imageshift</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>beamtiltgroups</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>gainref_flip_rotate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>funder</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>first_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>work_status</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>work_phone</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>orcid</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>name_org</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>type_org</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>first_name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>work_status</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>work_phone</t>
+          <t>telephone</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1565,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1465,7 +1652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1506,7 +1693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1547,42 +1734,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1775,52 +1926,52 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>screen_current</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>nominal_defocus</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>calibrated_defocus</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>nominal_magnification</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>calibrated_magnification</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>holder</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>holder_cryogen</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>temperature_range</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>microscope_software</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>detector_mode</t>
+          <t>detectors</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">

--- a/project/subtomo/excel/oscem_schemas_subtomo.xlsx
+++ b/project/subtomo/excel/oscem_schemas_subtomo.xlsx
@@ -16,29 +16,33 @@
     <sheet name="QuantitySI" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Descriptors" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Acquisition" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="EnergyFilter" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="SpecialistOptics" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Phaseplate" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="SphericalAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ChromaticAberrationCorrector" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Detector" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Instrument" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Microscope" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Sample" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="OverallMolecule" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Molecule" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Ligand" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Specimen" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Grid" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="SampleMolecular" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="TiltAngle" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="AcquisitionTomo" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Organizational" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Person" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Author" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Grant" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="Funder" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="EMDatasetTomo" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="AcquisitionSpa" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="EnergyFilter" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="SpecialistOptics" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Phaseplate" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="SphericalAberrationCorrector" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="ChromaticAberrationCorrector" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Detector" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Instrument" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Microscope" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Sample" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="OverallMolecule" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Molecule" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Ligand" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Specimen" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Grid" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="SampleMolecular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="TiltAngle" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="AcquisitionTomo" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="AcquisitionSubTomo" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="AcquisitionEnvTomo" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="AcquisitionCelTomo" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Organizational" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Person" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Author" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="Grant" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="Funder" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="EMDatasetTomo" sheetId="36" state="visible" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,6 +466,167 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AB1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>screen_current</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>detectors</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -492,7 +657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -528,7 +693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -559,7 +724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -590,7 +755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -621,7 +786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -662,7 +827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -728,7 +893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -759,7 +924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -815,7 +980,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -869,27 +1065,337 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name_mol</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>molecular_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>molecular_class</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>sequence</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>natural_source</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>taxonomy_id_source</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>expression_system</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>taxonomy_id_expression</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>gene_name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>present</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>smiles</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>concentration</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ph</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>vitrification</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>vitrification_cryogen</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>humidity</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>staining</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>embedding</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>shadowing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>material</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>mesh</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>film_support</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>film_material</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>film_topology</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>film_thickness</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pretreatment_type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pretreatment_time</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pretreatment_pressure</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pretreatment_atmosphere</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>overall_molecule</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>molecule</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ligands</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>specimen</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>maximal</t>
         </is>
@@ -900,73 +1406,520 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name_mol</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>molecular_type</t>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AD1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tilt_axis_angle</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tilt_angle</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>molecular_class</t>
+          <t>technique</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>sequence</t>
+          <t>screen_current</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>natural_source</t>
+          <t>nominal_defocus</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>taxonomy_id_source</t>
+          <t>calibrated_defocus</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>expression_system</t>
+          <t>nominal_magnification</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>taxonomy_id_expression</t>
+          <t>calibrated_magnification</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>gene_name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>detectors</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AD1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tilt_axis_angle</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tilt_angle</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>screen_current</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>detectors</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AD1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tilt_axis_angle</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tilt_angle</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>screen_current</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>detectors</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -983,503 +1936,269 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>smiles</t>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>reference</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>concentration</t>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AD1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tilt_axis_angle</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tilt_angle</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ph</t>
+          <t>technique</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>vitrification</t>
+          <t>screen_current</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>vitrification_cryogen</t>
+          <t>nominal_defocus</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>humidity</t>
+          <t>calibrated_defocus</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>nominal_magnification</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>staining</t>
+          <t>calibrated_magnification</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>embedding</t>
+          <t>holder</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>shadowing</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>manufacturer</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>material</t>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>detectors</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>grants</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>authors</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>mesh</t>
+          <t>funder</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>family_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>given_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>job_title</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>film_support</t>
+          <t>email</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>film_material</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>film_topology</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>film_thickness</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>pretreatment_type</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>pretreatment_time</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>pretreatment_pressure</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>pretreatment_atmosphere</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>overall_molecule</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>molecule</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>ligands</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>specimen</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>grid</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AC1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>tilt_axis_angle</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>tilt_angle</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>screen_current</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>calibrated_defocus</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>nominal_magnification</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>holder_cryogen</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>temperature_range</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>microscope_software</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>detectors</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>dose_per_movie</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>energy_filter</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>image_size</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>date_time</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>cryogen</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>frames_per_movie</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>grids_imaged</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>images_generated</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>binning_camera</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>specialist_optics</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>beamshift</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>beamtilt</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>imageshift</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>beamtiltgroups</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>gainref_flip_rotate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>funder</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>family_name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>given_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>job_title</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
           <t>telephone</t>
         </is>
       </c>
@@ -1489,7 +2208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1565,69 +2284,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>grant_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>start_date</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>grant_name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>start_date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t>end_date</t>
         </is>
       </c>
@@ -1652,7 +2335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1693,7 +2376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1915,146 +2598,151 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+  <dimension ref="A1:AB1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>screen_current</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>nominal_defocus</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>calibrated_defocus</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>nominal_magnification</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>calibrated_magnification</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>holder</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>holder_cryogen</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>temperature_range</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>microscope_software</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>detectors</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>dose_per_movie</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>energy_filter</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>image_size</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>date_time</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>exposure_time</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>cryogen</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>frames_per_movie</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>grids_imaged</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>images_generated</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>binning_camera</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pixel_size</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>specialist_optics</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>beamshift</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>beamtilt</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>imageshift</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>beamtiltgroups</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>gainref_flip_rotate</t>
         </is>
